--- a/data/echoMRI/Kotz11052024.xlsx
+++ b/data/echoMRI/Kotz11052024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA11914-FFE8-974E-B47E-9A65909C3B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E829013-9C87-BD45-AA22-F4FF49DA956D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -127,76 +127,76 @@
     <t>7882</t>
   </si>
   <si>
-    <t>09:12:28 Nov 5, 2024, 76; ems</t>
-  </si>
-  <si>
-    <t>09:14:40 Nov 5, 2024, 82; ems</t>
-  </si>
-  <si>
-    <t>09:17:01 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:19:04 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:21:06 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:23:52 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:25:49 Nov 5, 2024, 76; ems</t>
-  </si>
-  <si>
-    <t>09:27:50 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:29:58 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:32:08 Nov 5, 2024, 76; ems</t>
-  </si>
-  <si>
-    <t>09:34:21 Nov 5, 2024, 76; ems</t>
-  </si>
-  <si>
-    <t>09:36:24 Nov 5, 2024, 76; ems</t>
-  </si>
-  <si>
-    <t>09:38:37 Nov 5, 2024, 76; ems</t>
-  </si>
-  <si>
-    <t>09:40:48 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:43:09 Nov 5, 2024, 77; ems</t>
-  </si>
-  <si>
-    <t>09:45:08 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:47:07 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:49:19 Nov 5, 2024, 76; ems</t>
-  </si>
-  <si>
-    <t>09:51:23 Nov 5, 2024, 76; ems</t>
-  </si>
-  <si>
-    <t>09:53:32 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>09:55:34 Nov 5, 2024, 76; ems</t>
-  </si>
-  <si>
-    <t>09:57:51 Nov 5, 2024, 87; ems</t>
-  </si>
-  <si>
-    <t>10:00:14 Nov 5, 2024, 71; ems</t>
-  </si>
-  <si>
-    <t>10:02:19 Nov 5, 2024, 71; ems</t>
+    <t>09:12:28 Nov 5, 2024; 76; ems</t>
+  </si>
+  <si>
+    <t>09:14:40 Nov 5, 2024; 82; ems</t>
+  </si>
+  <si>
+    <t>09:17:01 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:19:04 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:21:06 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:23:52 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:25:49 Nov 5, 2024; 76; ems</t>
+  </si>
+  <si>
+    <t>09:27:50 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:29:58 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:32:08 Nov 5, 2024; 76; ems</t>
+  </si>
+  <si>
+    <t>09:34:21 Nov 5, 2024; 76; ems</t>
+  </si>
+  <si>
+    <t>09:36:24 Nov 5, 2024; 76; ems</t>
+  </si>
+  <si>
+    <t>09:38:37 Nov 5, 2024; 76; ems</t>
+  </si>
+  <si>
+    <t>09:40:48 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:43:09 Nov 5, 2024; 77; ems</t>
+  </si>
+  <si>
+    <t>09:45:08 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:47:07 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:49:19 Nov 5, 2024; 76; ems</t>
+  </si>
+  <si>
+    <t>09:51:23 Nov 5, 2024; 76; ems</t>
+  </si>
+  <si>
+    <t>09:53:32 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>09:55:34 Nov 5, 2024; 76; ems</t>
+  </si>
+  <si>
+    <t>09:57:51 Nov 5, 2024; 87; ems</t>
+  </si>
+  <si>
+    <t>10:00:14 Nov 5, 2024; 71; ems</t>
+  </si>
+  <si>
+    <t>10:02:19 Nov 5, 2024; 71; ems</t>
   </si>
 </sst>
 </file>
@@ -538,12 +538,12 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="27.19921875" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
